--- a/Learning-path.xlsx
+++ b/Learning-path.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pgb15001\talks\AI-IoT-VR\AI-IoT\Workshop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pgb15001\talks\UEMCON-2024\UEMCON-MAIN\Workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1B6D84-770E-47C7-836B-F694DA417A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DE9224-8647-4D10-A6D7-4DC47B145A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="372" yWindow="2124" windowWidth="22272" windowHeight="9984" xr2:uid="{ED1DE043-8BF4-4460-AFBF-C0D2A3A97480}"/>
+    <workbookView xWindow="2898" yWindow="2898" windowWidth="17280" windowHeight="9984" xr2:uid="{ED1DE043-8BF4-4460-AFBF-C0D2A3A97480}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>Glitch.com on laptop and phone</t>
   </si>
@@ -104,12 +104,6 @@
     <t>Components in other components</t>
   </si>
   <si>
-    <t>p10</t>
-  </si>
-  <si>
-    <t>p11</t>
-  </si>
-  <si>
     <t>p01</t>
   </si>
   <si>
@@ -129,12 +123,6 @@
   </si>
   <si>
     <t>p07</t>
-  </si>
-  <si>
-    <t>p08</t>
-  </si>
-  <si>
-    <t>p09</t>
   </si>
   <si>
     <t>Topic</t>
@@ -648,7 +636,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -665,7 +653,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -680,18 +668,18 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -700,27 +688,27 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -735,21 +723,21 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -764,18 +752,18 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -787,24 +775,24 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
         <v>47</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>48</v>
-      </c>
-      <c r="G5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -813,30 +801,30 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
         <v>53</v>
       </c>
-      <c r="F6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" t="s">
-        <v>57</v>
-      </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -845,54 +833,46 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" s="2"/>
+      <c r="G9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" t="s">
         <v>61</v>
       </c>
-      <c r="C9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="I9" t="s">
         <v>62</v>
       </c>
-      <c r="G9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Learning-path.xlsx
+++ b/Learning-path.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pgb15001\talks\UEMCON-2024\UEMCON-MAIN\Workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DE9224-8647-4D10-A6D7-4DC47B145A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8246AB-7EC1-4E64-82A9-F64745091200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2898" yWindow="2898" windowWidth="17280" windowHeight="9984" xr2:uid="{ED1DE043-8BF4-4460-AFBF-C0D2A3A97480}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{ED1DE043-8BF4-4460-AFBF-C0D2A3A97480}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,9 +92,6 @@
     <t>External images in A-Frame</t>
   </si>
   <si>
-    <t>Controls for objects &amp; events</t>
-  </si>
-  <si>
     <t xml:space="preserve">Boolean operations on objects </t>
   </si>
   <si>
@@ -225,6 +222,9 @@
   </si>
   <si>
     <t>ship-translate</t>
+  </si>
+  <si>
+    <t>Components, controls  &amp; events</t>
   </si>
 </sst>
 </file>
@@ -632,11 +632,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD790867-608C-46BF-9AE7-950E1EA43F78}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -653,7 +653,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -668,18 +668,18 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -688,27 +688,27 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -723,47 +723,47 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
         <v>36</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>37</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
       <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
         <v>40</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>41</v>
-      </c>
-      <c r="I4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -775,56 +775,56 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
         <v>43</v>
       </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
       <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
         <v>52</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>53</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>54</v>
-      </c>
-      <c r="I6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
         <v>50</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -833,36 +833,36 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
         <v>57</v>
-      </c>
-      <c r="C8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="G9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" t="s">
         <v>60</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>61</v>
-      </c>
-      <c r="I9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">

--- a/Learning-path.xlsx
+++ b/Learning-path.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pgb15001\talks\UEMCON-2024\UEMCON-MAIN\Workshop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pgb15001\talks\IEMCON-2024\IEMCON-MAIN\Workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8246AB-7EC1-4E64-82A9-F64745091200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FD4BB8-727A-4AFA-B5A4-809690BD5163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{ED1DE043-8BF4-4460-AFBF-C0D2A3A97480}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>Glitch.com on laptop and phone</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>Components, controls  &amp; events</t>
+  </si>
+  <si>
+    <t>Colors: RGB and CMYK</t>
   </si>
 </sst>
 </file>
@@ -633,10 +636,10 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -751,6 +754,9 @@
       <c r="E4" t="s">
         <v>15</v>
       </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
       <c r="G4" t="s">
         <v>39</v>
       </c>

--- a/Learning-path.xlsx
+++ b/Learning-path.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pgb15001\talks\IEMCON-2024\IEMCON-MAIN\Workshop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pgb15001\Talks\AR-VR\AI-IoT-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FD4BB8-727A-4AFA-B5A4-809690BD5163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D48C6F-0232-482D-BBD2-4573F4DFD35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{ED1DE043-8BF4-4460-AFBF-C0D2A3A97480}"/>
+    <workbookView xWindow="-28584" yWindow="5796" windowWidth="23040" windowHeight="11868" xr2:uid="{ED1DE043-8BF4-4460-AFBF-C0D2A3A97480}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -636,10 +636,10 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -883,5 +883,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>